--- a/Test Data Per Error Type.xlsx
+++ b/Test Data Per Error Type.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="145">
   <si>
     <t>Insertion</t>
   </si>
@@ -334,12 +333,6 @@
   </si>
   <si>
     <t>Higit pa rito, ngayon na matanda na ako, hindi ko pa rininiingatan ang aking katawan, tinatambak ko ito ng taba at pinipilit kong hindi kumain kahit ako'y gutom na.</t>
-  </si>
-  <si>
-    <t>tinatambak</t>
-  </si>
-  <si>
-    <t>tinatambakan</t>
   </si>
   <si>
     <t>Samakatuwid, nararapat nating tingnan ang sining ng diskurso gaya ng pagtingin natin sa ibang sining at hindi gumawa ng magkasalungat na palagay tungkol sa magkakaparehong bagay o ipakita ang sarili natin na hindi makatiis sa kapangyarihan, na sa lahat ng kakayan ng kalikasan ng tao, ang pinagmulan laramihan ng ating mga biyaya.</t>
@@ -457,6 +450,12 @@
   </si>
   <si>
     <t>Nagsasaya ako sa kakayahan kong gumawa nang may malay na pasya.</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>Lemma</t>
   </si>
 </sst>
 </file>
@@ -488,7 +487,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -511,26 +510,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -543,22 +522,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,6 +545,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -616,7 +596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -651,7 +631,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -860,1020 +840,1099 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="1" max="3" width="70.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="63" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H2" s="6"/>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H3" s="6"/>
+      <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H4" s="6"/>
+      <c r="I4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H5" s="6"/>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H6" s="6"/>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H7" s="6"/>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H9" s="6"/>
+      <c r="I9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H10" s="6"/>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H11" s="6"/>
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H12" s="6"/>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H13" s="6"/>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H14" s="6"/>
+      <c r="I14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H15" s="6"/>
+      <c r="I15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H16" s="6"/>
+      <c r="I16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H17" s="6"/>
+      <c r="I17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H18" s="6"/>
+      <c r="I18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H19" s="6"/>
+      <c r="I19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="G20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H20" s="6"/>
+      <c r="I20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="G21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H21" s="6"/>
+      <c r="I21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="G22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H22" s="6"/>
+      <c r="I22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="G23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H23" s="6"/>
+      <c r="I23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H24" s="6"/>
+      <c r="I24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="E25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="G25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H25" s="6"/>
+      <c r="I25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="G26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H26" s="6"/>
+      <c r="I26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H27" s="6"/>
+      <c r="I27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H28" s="6"/>
+      <c r="I28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H29" s="6"/>
+      <c r="I29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="F30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="G30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H30" s="6"/>
+      <c r="I30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="G31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H31" s="6"/>
+      <c r="I31" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="G32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H32" s="6"/>
+      <c r="I32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="F33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="G33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="1" t="s">
+      <c r="H33" s="6"/>
+      <c r="I33" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="G35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="H35" s="6"/>
+      <c r="I35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="G38" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="H41" s="6"/>
+      <c r="I41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="G42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="G47" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1884,45 +1943,467 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="63" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="6"/>
       <c r="G2" s="5"/>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data Per Error Type.xlsx
+++ b/Test Data Per Error Type.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="622">
   <si>
     <t>Insertion</t>
   </si>
@@ -456,6 +459,1474 @@
   </si>
   <si>
     <t>Lemma</t>
+  </si>
+  <si>
+    <t>Napagkakamalian minsan ang paggawa ng mga .50 na rolyo sa paggawa ng German 13.2 mm TuF, na ginawa ng Alemanya para sa isang anti-tank rifle upang gamiting laban sa mga tanke ng Bretanya.</t>
+  </si>
+  <si>
+    <t>Bretanya</t>
+  </si>
+  <si>
+    <t>Britanya</t>
+  </si>
+  <si>
+    <t>Camille - Batch 2</t>
+  </si>
+  <si>
+    <t>Umiral ang Barrett M82 SASR .50 Caliber rifle at ang mga sumusunod na baryante noong 1980 at pinalakas nito ng anti-materiel power ng military sniper.</t>
+  </si>
+  <si>
+    <t>anti-materiel</t>
+  </si>
+  <si>
+    <t>anti-material</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>Gamit naman ang "Turing test", nakagawa siya ng makabuluhan at kontrobersyal na kontribusyon sa debate sa posibilidad ng pagkakaroon ng sariling isip ng mga computer.</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>kompyuter</t>
+  </si>
+  <si>
+    <t>Pinag-aralan din nila Larsson at Moe ang iba'tibang palitan ng mensahe noong kampanya ng taong 2010 sa bansang Sweden.</t>
+  </si>
+  <si>
+    <t>Subalit, mahirap at sadyang napakabagal gawin kung susuriin nang mano-mano (Kent at McCarthy 33) ang mga tweet.</t>
+  </si>
+  <si>
+    <t>Subalit, mahirap</t>
+  </si>
+  <si>
+    <t>Subalit mahirap</t>
+  </si>
+  <si>
+    <t>Deletion</t>
+  </si>
+  <si>
+    <t>Excess Punctuation</t>
+  </si>
+  <si>
+    <t>Naging malinaw ang pangalan ng mga kandidato sapagkat nakikita na rin ang kanilang apilyido (hal. X Y).</t>
+  </si>
+  <si>
+    <t>apilyido</t>
+  </si>
+  <si>
+    <t>apelyido</t>
+  </si>
+  <si>
+    <t>Subalit, hindi na ito bahagi ng pag-aaral at iminumungkahing tignan ito.</t>
+  </si>
+  <si>
+    <t>tignan</t>
+  </si>
+  <si>
+    <t>tingnan</t>
+  </si>
+  <si>
+    <t>Ninanais nating isipin ang sining ng diskirso tulad ng iba pang uri ng sining, at hindi upang magkaroon ng salungat na 
+paghatol sa magkakatulad na bagay, o ipakita na hindi tayo tumatanggap ng kapangyarihan na, sa lahat ng makapangyarihan na kabilang sa katutubong ugali ng tao, nagmula ang ating mga biyaya.</t>
+  </si>
+  <si>
+    <t>o ipakita na hindi tayo</t>
+  </si>
+  <si>
+    <t>o ipakitang hindi tayo</t>
+  </si>
+  <si>
+    <t>Ngunit, sa kadahilanang nakaintal na sa atin ang kapangyarihang upang hikayatin at ipaintindi ng maayos sa isa't-isa ang 
+anumang hinahangad natin, hindi lamang tayo kumawala sa isang masalumuot na pamumuhay kundi sama-sama tayong nagtayo ng mga siyudad, nagtatag ng mga batas at lumikha ng mga sining at kultura.</t>
+  </si>
+  <si>
+    <t>sa isa't-isa ang anumang</t>
+  </si>
+  <si>
+    <t>sa isa't isa ang anumang</t>
+  </si>
+  <si>
+    <t>Kinakailangan nating magkaroon ng kaisipan sa sining ng diskurso tulad ng pagkakaroon natin ng kaisipan sa ibang mga 
+larangan at hindi para gumawa ng mga magkasalungat na hatol tungkol sa mga magkakawangis na bagay o kaya naman para ipakita sa ating mga sarili na hindi tayo sang ayon sa ganoong klase ng kapangyarihan na ang lahat ng mga kakayahan na nagmula sa likas na katangian ng tao na ang pinamulan ng karamihan sa ating mga biyaya.</t>
+  </si>
+  <si>
+    <t>hindi tayo sang ayon</t>
+  </si>
+  <si>
+    <t>hindi tayo sang-ayon</t>
+  </si>
+  <si>
+    <t>Bilang bata, pagiging perpekto ang nagbigay sa akin ng karapatan na 
+mabuhay.</t>
+  </si>
+  <si>
+    <t>ng karapatang mabuhay.</t>
+  </si>
+  <si>
+    <t>ng karapatan na mabuhay.</t>
+  </si>
+  <si>
+    <t>Kung kung saktan nila ang aking damdamin, maaari naming pag-usapan ito.</t>
+  </si>
+  <si>
+    <t>Kung kung saktan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kung masaktan </t>
+  </si>
+  <si>
+    <t>Excess Word</t>
+  </si>
+  <si>
+    <t>Pinapakita lamang ng sistema ang dalawang pinakamataas na linya ng 
+pixels bago sya pumunta sa susunod na hilera.</t>
+  </si>
+  <si>
+    <t>pixels bago sya</t>
+  </si>
+  <si>
+    <t>pixels bago siya</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>Nagsimulang makilala ang CGA o ang Color Graphics Adapter noong 1981 bilang ang pinaka unang graphics card at ang
+ pinaka unang kompyuter na nagpapakita ng kulay ng IBM</t>
+  </si>
+  <si>
+    <t>ang pinaka unang kompyuter</t>
+  </si>
+  <si>
+    <t>ang pinakaunang kompyuter</t>
+  </si>
+  <si>
+    <t>Sa pag-ayos ng matataas na bit, maaaring magamit ang mga modes na 
+may masmaliwanag na bersion.</t>
+  </si>
+  <si>
+    <t>na may masmaliwanang</t>
+  </si>
+  <si>
+    <t>na may mas maliwanang</t>
+  </si>
+  <si>
+    <t>Ang pangalang elektro ay galing sa wikang Griyego na amber 
+ang ibigsabihin.</t>
+  </si>
+  <si>
+    <t>ang ibigsabihin.</t>
+  </si>
+  <si>
+    <t>ang ibig sabihin.</t>
+  </si>
+  <si>
+    <t>Sinukat niya ang mass-to-charge proporsyon at nalaman niya na ito compara sa isang hydrogen ion, masmaliit ito ng isang
+ libong beses, ibig sabihin nito ay kung hindi ito napaka-charged, ito'y napaka-liit.</t>
+  </si>
+  <si>
+    <t>ito'y napaka-liit</t>
+  </si>
+  <si>
+    <t>ito'y napakaliit</t>
+  </si>
+  <si>
+    <t>Tingnan ang saysayan ng koriyente, para sa ibang impormasyon tungkol 
+sa terminong koriyente.</t>
+  </si>
+  <si>
+    <t>saysayan ng koriyente,</t>
+  </si>
+  <si>
+    <t>saysayan ng kuryente</t>
+  </si>
+  <si>
+    <t>tungkol sa koriyente.</t>
+  </si>
+  <si>
+    <t>tungkol sa kuryente.</t>
+  </si>
+  <si>
+    <t>Habang pinagaaralan ni J.J. Thomson ang mga cathode ray tubes sa Cavendish Laboratory sa Cambridge University,
+ nadiskubre niya na ang elektron ay isang subatomic particle.</t>
+  </si>
+  <si>
+    <t>Habang pinagaaralan ni</t>
+  </si>
+  <si>
+    <t>Habang pinag-aaralan ni</t>
+  </si>
+  <si>
+    <t>Nabubuo ang cathode ray kapag nagapply ng voltahe sa mga electrodes 
+at kapag lumiwanag ang tubo.</t>
+  </si>
+  <si>
+    <t>kapag nagapply ng</t>
+  </si>
+  <si>
+    <t>kapag nag-apply ng</t>
+  </si>
+  <si>
+    <t>Tuwing gumagalaw ang mga elektron, nagkakameron ng daloy ng charge, 
+at electric charge ang tawag dito.</t>
+  </si>
+  <si>
+    <t>elektron, nagkakameron ng</t>
+  </si>
+  <si>
+    <t>elektron, nagkakaroon ng</t>
+  </si>
+  <si>
+    <t>Mayroon itong tauhan na Cambodian at bayagang mamamahayag na nag-uulat ng pambansang balita, blater ng pulis, na
+ mayroong salin galing sa local na wikang Khmer.</t>
+  </si>
+  <si>
+    <t>galing sa local</t>
+  </si>
+  <si>
+    <t>galing sa lokal</t>
+  </si>
+  <si>
+    <t>Pinakamayaman at pinapopuladong lungsod ang Phnom Penh sa Cambodia.</t>
+  </si>
+  <si>
+    <t>pinapopuladong</t>
+  </si>
+  <si>
+    <t>pinakapopuladong</t>
+  </si>
+  <si>
+    <t>Hindi possibleng mahawaan ng kahit anong sexually transmitted disease sa taong walang sakit; katulad ng isang taong 
+nakakuha ng STD sa pamamagitan ng sexual o iba sa isa pang taong meron nito.</t>
+  </si>
+  <si>
+    <t>Hindi possibleng mahawaan</t>
+  </si>
+  <si>
+    <t>Hindi posibleng mahawaan</t>
+  </si>
+  <si>
+    <t>Ang pag iwas sa kahit anong bahagi ng katawan o likido na maaaring mag sanhi ng impeksyon ang pinaka epektibong 
+paraan para maiwasan ang sexual transmission ng mga STI.</t>
+  </si>
+  <si>
+    <t>pag iwas</t>
+  </si>
+  <si>
+    <t>pag-iwas</t>
+  </si>
+  <si>
+    <t>pinaka epektibong</t>
+  </si>
+  <si>
+    <t>pinakaepektibong</t>
+  </si>
+  <si>
+    <t>mag sanhi ng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magsanhi ng </t>
+  </si>
+  <si>
+    <t>Gayunman, nagka roon ng maraming condom recall, tulad ng isang kaso 
+sa south africa.</t>
+  </si>
+  <si>
+    <t>nagka roon</t>
+  </si>
+  <si>
+    <t>nagkaroon</t>
+  </si>
+  <si>
+    <t>Patuloy paring isang mahalagang paraan ang contact tracing kahit ang 
+sakit ay hindi nagagamot.</t>
+  </si>
+  <si>
+    <t>Patuloy paring</t>
+  </si>
+  <si>
+    <t>Patuloy pa ring</t>
+  </si>
+  <si>
+    <t>SA loob ng labangan na ito, namamalagi ang Lake Malawi, ito ang ikatlo sa pinakamalaking lawa sa Africa, at ika-sampu sa 
+mundo,</t>
+  </si>
+  <si>
+    <t>at ika sampu</t>
+  </si>
+  <si>
+    <t>at ika-sampu</t>
+  </si>
+  <si>
+    <t>Ang Malawi ay isa sa pinaka-okupadong bansa sa Sub-Saharan Africa.</t>
+  </si>
+  <si>
+    <t>pinaka-okupadong</t>
+  </si>
+  <si>
+    <t>pinakaokupadong</t>
+  </si>
+  <si>
+    <t>Kamakaylan lamang</t>
+  </si>
+  <si>
+    <t>Kamakailan lamang</t>
+  </si>
+  <si>
+    <t>Kamakaylan lamang hinikayat ng Persidente ng Malawi ang mga magsasaka 
+na ituring ang ibang tumutubo na pananim.</t>
+  </si>
+  <si>
+    <t>Matatagpuan sa paligid ng lungod ng Blanyre, ang nagmamanupakturang 
+industriya ng Malawi.</t>
+  </si>
+  <si>
+    <t>lungod</t>
+  </si>
+  <si>
+    <t>lungsod</t>
+  </si>
+  <si>
+    <t>Humantong sa mga pinabagong tanong tunkol sa pangako sa demokrasya 
+na gawa ng Togo sa 2004 sa isang tawad para maayos ang pagkakasunduan sa European Union dahil pinutulan ang tulong sa 1993 sa rekord ng karapatan ng mga tao ng bansa ang pagsulong ng 2005.</t>
+  </si>
+  <si>
+    <t>tunkol</t>
+  </si>
+  <si>
+    <t>tungkol</t>
+  </si>
+  <si>
+    <t>Kayang kaya tumayo sa sariling paa ang Togo sa mga pangunahing pangangailangan nito twuing tama ang ani kahit pa may 
+kaunting problema ito paminsan-minsan</t>
+  </si>
+  <si>
+    <t>Kayang kaya</t>
+  </si>
+  <si>
+    <t>Kayang-kaya</t>
+  </si>
+  <si>
+    <t>Sa sector ng pang-industrya, ang pagmimina sa phosphate ay ang 
+pinaka-importanteng aktibidad kahit na nararanasan nito ang pagbagsak ng presyo ng phosphates at ang pagdadami ng competisyon.</t>
+  </si>
+  <si>
+    <t>pinaka-importanteng</t>
+  </si>
+  <si>
+    <t>pinakaimportanteng</t>
+  </si>
+  <si>
+    <t>competisyon.</t>
+  </si>
+  <si>
+    <t>kompetisyon.</t>
+  </si>
+  <si>
+    <t>pang-industrya</t>
+  </si>
+  <si>
+    <t>pang-industriya</t>
+  </si>
+  <si>
+    <t>Pampook na comersyal at sentro ng pangangalakal ang Togo.</t>
+  </si>
+  <si>
+    <t>comersyal</t>
+  </si>
+  <si>
+    <t>komersyal</t>
+  </si>
+  <si>
+    <t>na pang-dayuhan at</t>
+  </si>
+  <si>
+    <t>na pangdayuhan at</t>
+  </si>
+  <si>
+    <t>Nahinto ang dekadang pagsisikap ng gobyerno, na sinusuportahan ng 
+World Bank at ang IMF na isakatuparan ang economic reform measures, himukin ang mga pamumuhunan na pang-dayuhan at magdala ng mga
+ tubo.</t>
+  </si>
+  <si>
+    <t>Ang pag-uunlad ay nakasalalay sa pagdagdag ng pagkabukas ng isip sa mga pinansyal ng operasyon ng gobyerno 
+(para mapagkasya ang tumaas na serbisyong sosyal na paggugol) at ang possibleng pagliliit ng militar kung saan nakadepende ang pamunuan na manatili sa posisyon.</t>
+  </si>
+  <si>
+    <t>possibleng</t>
+  </si>
+  <si>
+    <t>posibleng</t>
+  </si>
+  <si>
+    <t>Islam ang naaiwang 21% ng Togolese.</t>
+  </si>
+  <si>
+    <t>naaiwang</t>
+  </si>
+  <si>
+    <t>naiiwang</t>
+  </si>
+  <si>
+    <t>Hanggang 2006, maliit lang ang pwersa sa bansa ng Futbol ang Togo pero kagaya ng mga kanlurang nasyon ng Africa
+ katulad ng Senegal, Nigeria at Cameroon, ang pambansang pangkat ng Togo ay nangkop sa World Cup.</t>
+  </si>
+  <si>
+    <t>nangkop</t>
+  </si>
+  <si>
+    <t>naangkop</t>
+  </si>
+  <si>
+    <t>Realica, Samantha</t>
+  </si>
+  <si>
+    <t>John Paul Guzman</t>
+  </si>
+  <si>
+    <t>Von Julion Flores</t>
+  </si>
+  <si>
+    <t>Dy, Clifford</t>
+  </si>
+  <si>
+    <t>Solomon, Elyssa Hilary</t>
+  </si>
+  <si>
+    <t>Soltis, Aizle</t>
+  </si>
+  <si>
+    <t>Toque, Judiel</t>
+  </si>
+  <si>
+    <t>Lumbre, Joshua</t>
+  </si>
+  <si>
+    <t>Kahit na dalawa ang opisyal na panahon ng Cebu, ang tag-tuyo at tag-ulan, hindi masyadong malakas ang ulan at karaniwang
+ umaabot sa 100 milimetrong patak ng ulan kada buwan.</t>
+  </si>
+  <si>
+    <t>ang tag-tuyo at</t>
+  </si>
+  <si>
+    <t>ang tagtuyo at</t>
+  </si>
+  <si>
+    <t>Velasco, Lance</t>
+  </si>
+  <si>
+    <t>Chicoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicoy </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> probinsya ng Ceb u noong 1944</t>
+  </si>
+  <si>
+    <t>ng Ceb u noong</t>
+  </si>
+  <si>
+    <t>ng Cebu noong</t>
+  </si>
+  <si>
+    <t>Nag daan ng mga kwento ng isang mabagsik isla sa silangang Indies 
+ang mga nakaligtas sa ekspedisyon ng makabalik sila sa Espanya.</t>
+  </si>
+  <si>
+    <t>Nag daan</t>
+  </si>
+  <si>
+    <t>Nagdaan</t>
+  </si>
+  <si>
+    <t>Rheniel, Darren</t>
+  </si>
+  <si>
+    <t>Comet Hale-Boop ay masmadalas obserbahan na komet nung 
+ikadalawampu siglo, at isa sa pinakamaliwanag nanakikita sa nakaraan sampung taon.</t>
+  </si>
+  <si>
+    <t>masmadalas</t>
+  </si>
+  <si>
+    <t>mas madalas</t>
+  </si>
+  <si>
+    <t>Uy, Jeff</t>
+  </si>
+  <si>
+    <t>Mahirap ipredict kahit anung antas ng katampakan ang bagaman sa liawanag ng kometa, Hale-Boop nakita o lumagpas 
+halos lahat na prinidecta para sa liwanag nung dumaan sa perihelion nung ika 1 ng Abril 1997</t>
+  </si>
+  <si>
+    <t>Mahirap ipredict kahit</t>
+  </si>
+  <si>
+    <t>Mahirap i-predict kahit</t>
+  </si>
+  <si>
+    <t>Sinubukan niyang makipagusap sa kanyang kaibigan</t>
+  </si>
+  <si>
+    <t>makipagusap</t>
+  </si>
+  <si>
+    <t>makipag-usap</t>
+  </si>
+  <si>
+    <t>Azucena, Benedict</t>
+  </si>
+  <si>
+    <t>Panama La Vieja (Lumang Panama) ang pangalan na ginagamit para sa 
+mga palatandaan ng arkitektura ng Monumental Historic Complex ng pinakaunang siyudad ng Espanya na itinayo sa baybaying Pasipiko ng Kaamerikahan ni Pedro Arias de Avila noong 15Agosto 1519.</t>
+  </si>
+  <si>
+    <t>ang pangalan na ginagamit</t>
+  </si>
+  <si>
+    <t>ang pangalang ginagamit</t>
+  </si>
+  <si>
+    <t>Alicbusan, Roscoe</t>
+  </si>
+  <si>
+    <t>Isang bagay na matatandaan ang pagunlad sa kalusugan at kalinisan
+ dala ng pagdalo ng mga Amerikano sa Canal Zone.</t>
+  </si>
+  <si>
+    <t>ang pagunlad sa</t>
+  </si>
+  <si>
+    <t>ang pag-unlad sa</t>
+  </si>
+  <si>
+    <t>Pagkatapos itaas ng ilang ulit ang boltahe, iniuntog ng actor ang kanyang ulo sa pader na naging dahilan upang ihiwalay 
+siya sa kalahok.</t>
+  </si>
+  <si>
+    <t>ng actor ang</t>
+  </si>
+  <si>
+    <t>ng aktor ang</t>
+  </si>
+  <si>
+    <t>Ley, Kurt</t>
+  </si>
+  <si>
+    <t>Ang lungsod ng Kabul ay kabisera nang bansa at probinsiya na may taas na
+ 1800 metro na kapantayan ng dagat, kaya isa ito sa mga pinaka-mataas na kabisera sa mundo</t>
+  </si>
+  <si>
+    <t>pinaka-mataas</t>
+  </si>
+  <si>
+    <t>pinakamataas</t>
+  </si>
+  <si>
+    <t>Chua, Nicole</t>
+  </si>
+  <si>
+    <t>Simula nang ika-labing tatlong siglo, itinuring ang Kabul na isa sa 
+pinaka-edukado at pinaka-magandang lugar sa mundo</t>
+  </si>
+  <si>
+    <t>pinaka-edukado</t>
+  </si>
+  <si>
+    <t>pinakaedukado</t>
+  </si>
+  <si>
+    <t>Camille 1</t>
+  </si>
+  <si>
+    <t>Naka istasyon sa Kyoto, Japan, Ang negosyo gumagawa at nagbenta ng laruang card game na pangalang Hanafuda.</t>
+  </si>
+  <si>
+    <t>Naka istasyon</t>
+  </si>
+  <si>
+    <t>Nakaistasyon</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>Ang companya nagsimulang mag imbento ng kahit anong negosyo gamit ang bagong napatupad na kabisera.</t>
+  </si>
+  <si>
+    <t>companya</t>
+  </si>
+  <si>
+    <t>kumpanya</t>
+  </si>
+  <si>
+    <t>mag imbento</t>
+  </si>
+  <si>
+    <t>mag-imbento</t>
+  </si>
+  <si>
+    <t>Habang umiiral ang iba't-ibang mga tanawin tungkol sa homosekswalidad sa loob ng komunidad ng Orthodox Dyuis, pangkalahatan ipinagbabawal ng homosekswal na pag-uugali ang Orthodox Hudaismo.</t>
+  </si>
+  <si>
+    <t>Sa kolehiyo, nag-aral siya sa irish at Hebrew at pinagpatuloy niya ang pagaaral ng musika at pagtutugtog sa Academy orchestra ng mga konsiyerto sa Antient Concert Rooms.</t>
+  </si>
+  <si>
+    <t>pinagpatuloy</t>
+  </si>
+  <si>
+    <t>ipinagpatuloy</t>
+  </si>
+  <si>
+    <t>pagaaral</t>
+  </si>
+  <si>
+    <t>pag-aaral</t>
+  </si>
+  <si>
+    <t>Iniwan niya ang propesyon sa musika dahil nahihiya siya sa magperform at dahil sa pag-aalinlangan ng kanyang kakayahan, kaya pinagpatuloy niya ang kanyang interes sa panitikan.</t>
+  </si>
+  <si>
+    <t>magperform</t>
+  </si>
+  <si>
+    <t>mag-perform</t>
+  </si>
+  <si>
+    <t>Naranasan ni Synge ang unang atake niya ng sakit na Hodgkin's disease noong 1897 at tinangal sa kanyang leeg ang isang malaking glandula.</t>
+  </si>
+  <si>
+    <t>tinangal</t>
+  </si>
+  <si>
+    <t>tinanggal</t>
+  </si>
+  <si>
+    <t>Binigay niya kay Lady Gregory para sa Irish Literary Theatre noong 1900, ngunit tinanggihan niya at hindi nailathala hanggang sa lumitaw ito sa mga tiponna gawa.</t>
+  </si>
+  <si>
+    <t>tiponna gawa</t>
+  </si>
+  <si>
+    <t>tipon na gawa</t>
+  </si>
+  <si>
+    <t>Inilathala sa New Ireland Review noong 1898 ang kanyang unang karanasan sa Isla at ang kanyang talaarawan na kasing haba ng libro na The Aran Islands ay nakompleto noong 1901 at inilathala ito noong 1907 na may kasamang larawang paliwanag ni Jack Butler Yeats.</t>
+  </si>
+  <si>
+    <t>kasing haba</t>
+  </si>
+  <si>
+    <t>kasing-haba</t>
+  </si>
+  <si>
+    <t>Isang mabagal na repleksyon ng buhay sa Isla at nagnilay-nilay sa paniniwala ni Synge na sa ilalim ng Katolisismo ng mga tao sa Isla posible palang makita ang salig ng mga paganong painiwala ng kanilang mga ninuno ang kanyang libro.</t>
+  </si>
+  <si>
+    <t>painiwala</t>
+  </si>
+  <si>
+    <t>paniniwala</t>
+  </si>
+  <si>
+    <t>Maaring mahanap ang ilang unang halimbawa ng markup language na magagamit sa_labas ng industriyang paglalathala sa typesetting tools sa mga sistemang Unix tulad_ng troff at nroff .</t>
+  </si>
+  <si>
+    <t>industriyang</t>
+  </si>
+  <si>
+    <t>industriya ng</t>
+  </si>
+  <si>
+    <t>Ngunit, mas kinikiala sa kasalukuyan bilang "ama" ng markup languages si IBM researcher Charles Goldfarb, dahil sa kanyang trabaho sa IBM, GML, at pagkatapos bilang chair ng International Organization for Standardization committee na bumuo sa SGML, ang unang descriptive markup system na malawakang ginamit.</t>
+  </si>
+  <si>
+    <t>languages si IBM</t>
+  </si>
+  <si>
+    <t>languages ang IBM</t>
+  </si>
+  <si>
+    <t>Paolo Merle</t>
+  </si>
+  <si>
+    <t>Mas nagpokus sa detalyeng kaayusan ng teksto at deskripsyon  ng font ang TeX upang mai-typeset ang mga librong matematikal sa kalidad na pangpropesyunal.</t>
+  </si>
+  <si>
+    <t>pangpropesyunal</t>
+  </si>
+  <si>
+    <t>pampropesyunal</t>
+  </si>
+  <si>
+    <t>Pinayagan nito ang mga awtor na gumamit at lumikha ng kahit anong markup nagusto nila, mamili ng tag na angkop para sa kanila at ipinnangalan sa kani-kanilang natural na lengguwahe.</t>
+  </si>
+  <si>
+    <t>nagusto</t>
+  </si>
+  <si>
+    <t>na gusto</t>
+  </si>
+  <si>
+    <t>Mga instruksyong markup (na kinikilalang tag) ang mga code na kalakip sa angle-brackets &lt;tulad nito&gt;, habang ang aktwal na teksto ng dokumento ang teksto sa paagitan nitong mga instruksyong ito.</t>
+  </si>
+  <si>
+    <t>paagitan</t>
+  </si>
+  <si>
+    <t>pagitan</t>
+  </si>
+  <si>
+    <t>Maaring gumamit ng sariling patakaran o istilo ang isang aplikasyong nagsasalin ng mga structural markup tulad ng nabanggit para sa paghaharap ng iba-ibang  bahagi ng teksto, gamit ang iba't-ibang typeface, boldness,font size, indensyon, kulay, o ibang istilo na ninanais.</t>
+  </si>
+  <si>
+    <t>istilo</t>
+  </si>
+  <si>
+    <t>estilo</t>
+  </si>
+  <si>
+    <t>Nangatwiran si DeRose na naging pangunahing kadahilan ang paggamit ng HTML ng descrptive markup (at SGML particular) sa pagkabuo ng Web, dahil sa kakayahang bumagay sa pangyayari at posibilidad na magpahaba na bigay nito. (kasama sa iba pang kadahilan ang pagkahiwatig ng mga URL at ng malayang distribusyon ng mga browser).</t>
+  </si>
+  <si>
+    <t>kadahilan</t>
+  </si>
+  <si>
+    <t>kadahilanan</t>
+  </si>
+  <si>
+    <t>Isinasaad sa detalye ng lengguwahe na nangangailangan na dapat mga dokumentong XML na maganda ang pagkakabuo ang mga dokumentong XHTML Web - nagbibigay daan ito para sa mga mahigpit at mabulas na dokumento habang gumagamit ng mga tag na pamiliar mula sa HTML.</t>
+  </si>
+  <si>
+    <t>pamiliar</t>
+  </si>
+  <si>
+    <t>pamilyar</t>
+  </si>
+  <si>
+    <t>Nagsimula ang estadistika ng hindi lalagpas sa ika-18 siglo, mula sa pangangailangan ng mga estado na kalapin ang mga datos ng kanilang mamamayan at ekonomiya upang mapamahalaan sila.</t>
+  </si>
+  <si>
+    <t>estadistika ng hindi</t>
+  </si>
+  <si>
+    <t>estadistika nang hindi</t>
+  </si>
+  <si>
+    <t>Fuentes, Earleen</t>
+  </si>
+  <si>
+    <t>Matapos nito, sumasailalim ang mga datos sa estadistikal na pagsusuri na nagsisilbi ng dalawang magka-ugnay na gamit: deskripsyon at paghinuha.</t>
+  </si>
+  <si>
+    <t>magka-ugnay</t>
+  </si>
+  <si>
+    <t>magkaugnay</t>
+  </si>
+  <si>
+    <t>Kapansin-pansin ang konsepto ng pagkaka-ugnay.</t>
+  </si>
+  <si>
+    <t>pagkaka-ugnay</t>
+  </si>
+  <si>
+    <t>pagkakaugnay</t>
+  </si>
+  <si>
+    <t>Nagkaka-iba ang dalawang uri sa paraan ng pagsasagawa ng pag-aaral.</t>
+  </si>
+  <si>
+    <t>Nagkaka-iba</t>
+  </si>
+  <si>
+    <t>Nagkakaiba</t>
+  </si>
+  <si>
+    <t>Sa halip, kinakalap ang mga datos at iniimbestigahan ang kaugnayan sa pagitan ng predictor at response.</t>
+  </si>
+  <si>
+    <t>predictor</t>
+  </si>
+  <si>
+    <t>prediktor</t>
+  </si>
+  <si>
+    <t>Sa kasong ito, nangangalap ang mga mananaliksik ng obserbasyon ng parehong naninigarilyo at di naninigarilyo, maaring sa pamamagitan ng case control na pag-aaral, at pagktapos tinignan ang bilang ng kaso ng kanser sa baga sa bawat grupo.</t>
+  </si>
+  <si>
+    <t>tinignan</t>
+  </si>
+  <si>
+    <t>tinitingnan</t>
+  </si>
+  <si>
+    <t>Mayroong iba ibang antas ng kapakinabangan ang apat na uri o lebel ng pagsukat (nominal, ordinal, interval, ratio).</t>
+  </si>
+  <si>
+    <t>iba ibang</t>
+  </si>
+  <si>
+    <t>iba-ibang</t>
+  </si>
+  <si>
+    <t>Ang napakalaking sari-saring klaseng ipinakita sa struktura ng dahon (anatomy) mula sa isang uri patungo sa isang uri ay ipinakita kasama ang mga detalye sa ilalaim ng Leaf Morphology.</t>
+  </si>
+  <si>
+    <t>struktura</t>
+  </si>
+  <si>
+    <t>istruktura</t>
+  </si>
+  <si>
+    <t>Mari Louise Francisco</t>
+  </si>
+  <si>
+    <t>pinaka marami</t>
+  </si>
+  <si>
+    <t>pinakamarami</t>
+  </si>
+  <si>
+    <t>Ang pinaka marami, ang pinakamalaki, at hindi bababa sa nagdadalubhasa.</t>
+  </si>
+  <si>
+    <t>Mayroong buong blade ang simplen dahon</t>
+  </si>
+  <si>
+    <t>simplen</t>
+  </si>
+  <si>
+    <t>simpleng</t>
+  </si>
+  <si>
+    <t>Mayroong buong paghahati ang blade ng isang dahon, nahihiwalay ito kung saan nakalagay ang pangunahing ugat o ang pangalawang ugat.</t>
+  </si>
+  <si>
+    <t>Mayroong buong</t>
+  </si>
+  <si>
+    <t>May buong</t>
+  </si>
+  <si>
+    <t>Isa sa pinaka-vital na bahagi ng halaman ang dahon, at nagbago na ang proteksyon nito laban sa folivores tulad ng tannins, mga kemikal na pinipigilan ang pag-kain ng mga protina at pagkakaroonng hindi kaayaayang lasa.</t>
+  </si>
+  <si>
+    <t>pag-kain</t>
+  </si>
+  <si>
+    <t>pagkain</t>
+  </si>
+  <si>
+    <t>Dati kilala ito sa pangalang IG Farben Complex at General Creighton W. Abrahams Building, ngayon ay Poelzig Ensemble o Poelzig complex.</t>
+  </si>
+  <si>
+    <t>Dati kilala</t>
+  </si>
+  <si>
+    <t>Dati, kilala</t>
+  </si>
+  <si>
+    <t>Kurt Ting</t>
+  </si>
+  <si>
+    <t>Dito, inarkila ni Dr. Heinrich Hoffman si Alois Alzheimer para magtrabaho sa ospital, kung saang silang dalawa ay naka diskubre ng paraan para magamot ang may mga problema sa pag iisip.</t>
+  </si>
+  <si>
+    <t>naka diskubre</t>
+  </si>
+  <si>
+    <t>nakadiskubre</t>
+  </si>
+  <si>
+    <t>Nilisan ang gusali noong Disyembre 1945 pero ginagamit parin ang opisinita nito mag may espesyal na okasyon: Pinirmahan dito ang konstitusyon ng Hesse. Nakakuha ang komisyon para magtala ng Grundgesetz (German konstitusyon) at naroon rin ang administrasyon ng Wirtschaftsrat der Bizone (Ang Economic Council ng Bizone).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pa rin </t>
+  </si>
+  <si>
+    <t>Maiiba ang katangian kapag gumagalaw ng patindig sa tabi ng mga haligi ng talahanayan, kaysa kapag gumagalaw ng pahalang sa tabi ng mga hilera.</t>
+  </si>
+  <si>
+    <t>gumagalaw ng patindig</t>
+  </si>
+  <si>
+    <t>gumagalaw nang patindig</t>
+  </si>
+  <si>
+    <t>Renz Paolo Antolin</t>
+  </si>
+  <si>
+    <t>Gayunpaman, nadismiss ang teoryang ito nang nasimulang madiskubre ang mga tunay kemikal na element.</t>
+  </si>
+  <si>
+    <t>nadismiss</t>
+  </si>
+  <si>
+    <t>na-dismiss</t>
+  </si>
+  <si>
+    <t>Isa sa pinakaunang napatunayan na halimbawa ng Lumang Ingles ang Caedmon's Hymn, at isa sa tatlong kandidato para sa pinakaunang napatunayan na halimbawa ng tula na Lumang Ingles, kasama ng runik na Ruthwell Cross at inskripsyon ng Franks Casket.</t>
+  </si>
+  <si>
+    <t>napatunayang</t>
+  </si>
+  <si>
+    <t>napatunayan na</t>
+  </si>
+  <si>
+    <t>Jason Cruz</t>
+  </si>
+  <si>
+    <t>Ang Historia ecclesiastica ni Bede ang nagiisang pinagkukunan ng orihinal na impormasyon tungkol sa buhay at mga gawa ni Caedmon.</t>
+  </si>
+  <si>
+    <t>nagiisang</t>
+  </si>
+  <si>
+    <t>nag-iisang</t>
+  </si>
+  <si>
+    <t>Inutusan ng Abess ang kaniyang mga iskolar na turuan si Caedmon ng banal na kasaysayan at doktrina. Pagkatapos ng isang gabi ng pagiisip, itinala ni Bede na magiging pinakamagandang berso si Caedmon.</t>
+  </si>
+  <si>
+    <t>pagiisip</t>
+  </si>
+  <si>
+    <t>Pagkatapos ng mahaba at masigasig na banal na pamumuhay, namatay si Caedmon na parang santo: nabigyan siya ng kutob ng loob ng kaniyang kamatayan, hiniling niyang ilipat siya sa hospisyo ng kumbento ng mga may malalang sakit, kung saan naglikom ang kaniyang mga kaibigan, at namatay siya bago mag gabi.</t>
+  </si>
+  <si>
+    <t>Pagkatapos ng mahaba</t>
+  </si>
+  <si>
+    <t>Pagkatapos nang mahaba</t>
+  </si>
+  <si>
+    <t>Pag pinagsama-sama, minumungkahi netong ebidensya na may aktibong kapanahunan noon na nagsimula sa pagitan ng 657 at 680, at natapos sa pagitan ng 679 at 684.</t>
+  </si>
+  <si>
+    <t>Pag</t>
+  </si>
+  <si>
+    <t>Kapag</t>
+  </si>
+  <si>
+    <t>netong</t>
+  </si>
+  <si>
+    <t>nitong</t>
+  </si>
+  <si>
+    <t>Walang ng natitirang bagay ang nagpapaliwanag sa buhay at sa mga gawa ni Caedmon.</t>
+  </si>
+  <si>
+    <t>Walang  ng natitirang</t>
+  </si>
+  <si>
+    <t>Wala nang natitirang</t>
+  </si>
+  <si>
+    <t>Nagtrabaho siya sa mga trabahong utusan at maya't maya'y nagtrabaho para sa isang mayaman na pamilya sa Brooklyn sa pagitan ng 1917 at 1918, at sa mga panahon na ito, maaaring narinig niya si Marcus Garvey magsalita sa Harlem.</t>
+  </si>
+  <si>
+    <t>mayaman na pamilya</t>
+  </si>
+  <si>
+    <t>mayamang pamilya</t>
+  </si>
+  <si>
+    <t>Ruiz, Juan Paolo</t>
+  </si>
+  <si>
+    <t>Pinaniniwalaan ng marami na nakipag-ugnayan siya sa mga nasyonalistang taga-Korea habang nasa Estados Unidos, isang karanasan na naghubog ng kanyang pampulitikang pananaw.</t>
+  </si>
+  <si>
+    <t>na naghubog ng</t>
+  </si>
+  <si>
+    <t>na humubog ng</t>
+  </si>
+  <si>
+    <t>Sa pamamgitan ng karahasan sa pagitan ng magkaribal na pangkat ng Vietnam at ng pwersang French, nagdeklara ngbatas military ang komandanteng Briton na si Heneral Douglas Gracey.</t>
+  </si>
+  <si>
+    <t>pamamgitan</t>
+  </si>
+  <si>
+    <t>pamamagitan</t>
+  </si>
+  <si>
+    <t>ngbatas</t>
+  </si>
+  <si>
+    <t>ng batas</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>militar</t>
+  </si>
+  <si>
+    <t>Noong 1964, ipinadala ang hukbong panglaban ng hilagang Vietnam sa timogkanluran papunta sa Laos na neutral.</t>
+  </si>
+  <si>
+    <t>timogkanluran</t>
+  </si>
+  <si>
+    <t>timog kanluran</t>
+  </si>
+  <si>
+    <t>Ilagay mo ang bagay na yan sa mesa ni Binibining Gandy kung saan yan nararapat, sabi ni Hoover.</t>
+  </si>
+  <si>
+    <t>yan</t>
+  </si>
+  <si>
+    <t>iyan</t>
+  </si>
+  <si>
+    <t>Regeene Lim</t>
+  </si>
+  <si>
+    <t>Si Gandy na mapagpananggol sa kanyang amo, ang nakahanap ng mali at ibinigay kay Hoover para makuha ang atensiyon nito.</t>
+  </si>
+  <si>
+    <t>na mapagpananggol sa</t>
+  </si>
+  <si>
+    <t>laging ipinapagtanggol ang</t>
+  </si>
+  <si>
+    <t>Noong Pebrero 1966, nagbida siya sa isang US premiere ng Don Rodrigo ni Ginastera sa New York City Opera at ipinagbunyi.</t>
+  </si>
+  <si>
+    <t>1966, nagbida siya</t>
+  </si>
+  <si>
+    <t>1966, bumida siya</t>
+  </si>
+  <si>
+    <t>Adrian Luis Lindayag</t>
+  </si>
+  <si>
+    <t>Sa labindalawang taong pag-aaral, inilathala noong 2003, nadiskubre na maabot ng maikling tukang Echidna ang sekswal na kagulangan sa pagitan 5 hanggang 12 taon ng edad, at nag-iiba-iba ang dals ng pagpaparami isang beses sa dalawang taon hanggang isang beses sa anim na taon.</t>
+  </si>
+  <si>
+    <t>taon ng</t>
+  </si>
+  <si>
+    <t>taong</t>
+  </si>
+  <si>
+    <t>Danica Christine Corpuz</t>
+  </si>
+  <si>
+    <t>Kapag natapos na ng mga kotsinil ang paulit-ulit, handa na ang mga bagong kotsinil na magsimula ng paulit-ulit o sa pag tuyo para sa paggawa ng pangkulay.</t>
+  </si>
+  <si>
+    <t>pag tuyo</t>
+  </si>
+  <si>
+    <t>pagtuyo</t>
+  </si>
+  <si>
+    <t>Pancratius Dela Rosa</t>
+  </si>
+  <si>
+    <t>Matrabaho ang pagaani ng mga insekto na kung saan kinakailangang patay,</t>
+  </si>
+  <si>
+    <t>pagaani</t>
+  </si>
+  <si>
+    <t>pag-aani</t>
+  </si>
+  <si>
+    <t>Sa maliit na sukatang paglilinang sa manwal na pamamaraan ang napatunayang pinaka epektibo at ligtas.</t>
+  </si>
+  <si>
+    <t>pinaka epektibo</t>
+  </si>
+  <si>
+    <t>pinakaepektibo</t>
+  </si>
+  <si>
+    <t>Kinakailangang matuyo ang mga insekto ng hindi bababa sa 30 porsiyento ng kanilang orihinal na timbang ng katawan bagao ito iimbak ng hindi ito tuluyang mabulok o masira.</t>
+  </si>
+  <si>
+    <t>insekto ng hindi</t>
+  </si>
+  <si>
+    <t>insekto nang hindi</t>
+  </si>
+  <si>
+    <t>May mga ibang kritikong nakita nag libro bilang isang sariling talambuhay na nobela na isinasalaysay ang mga problema ni Fitzgerald sa kanyang asawa, ang epekto ng kayamanan at buhay dekadente, ng kanyang  pagmamakasarili at pansariling kompiyansya, at ang patuloy na pagiinom.</t>
+  </si>
+  <si>
+    <t>pagiinom</t>
+  </si>
+  <si>
+    <t>pag-iinom</t>
+  </si>
+  <si>
+    <t>Raguel Rivera</t>
+  </si>
+  <si>
+    <t>Sinasabi rin na nagkarelasyon siya sa marami pang tao katulad na ni Howard Sturges, pati rin sa isang arkitekto, si Ed Tauch (na sinulatan ni Porter ng "Easy to Love"), si Nelson Barclift (na siyang naging inspirasyon para sa "You'd Be So Nice To Come Home To"), si direktor John Wilson (na sa susunod ay pakakasalan ang beauty Princes Nathalie Paley), at ang matagal niyang kaibigan, si Ray Kelly na binibigyan ng copyright royalties ni Porter ang mga anak nito.</t>
+  </si>
+  <si>
+    <t>katulad na ni</t>
+  </si>
+  <si>
+    <t>katulad ni</t>
+  </si>
+  <si>
+    <t>Chan, Deanne Moree</t>
+  </si>
+  <si>
+    <t>Dahil ipinanganak siya sa isang mayaman na pamilya at ang kanyang asawa ay masalapi rin, hindi siya nagkulang sa pera at masarap pa rin ang kanyang buhay sa Europa noong mga 1920s.</t>
+  </si>
+  <si>
+    <t>isang mayaman na pamilya</t>
+  </si>
+  <si>
+    <t>isang mayamang pamilya</t>
+  </si>
+  <si>
+    <t>Sa panahon na ito, nagdala sa kanya sa kalungkutan ang mga operasyon.</t>
+  </si>
+  <si>
+    <t>Sa panahon na ito</t>
+  </si>
+  <si>
+    <t>Sa panahong ito</t>
+  </si>
+  <si>
+    <t>Pagkalipas ng isang lingo ng karahasan na nagiwan ng daan daang patay, umapila si Jawara sa London upang humingin ng tulong mula sa Senegal</t>
+  </si>
+  <si>
+    <t>lingo</t>
+  </si>
+  <si>
+    <t>linggo</t>
+  </si>
+  <si>
+    <t>Juan Paolo Coloma</t>
+  </si>
+  <si>
+    <t>nagiwan</t>
+  </si>
+  <si>
+    <t>nag-iwan</t>
+  </si>
+  <si>
+    <t>Nabuo ang Senegambia confederation, mapagsama sama ang mga armed forces ng dalwang estado at mapagisa ang kanilang ekonomiya at salapi ang layunin ng kompederasyon na ito.</t>
+  </si>
+  <si>
+    <t>mapagsama sama</t>
+  </si>
+  <si>
+    <t>mapagsama-sama</t>
+  </si>
+  <si>
+    <t>mapagisa</t>
+  </si>
+  <si>
+    <t>mapag-isa</t>
+  </si>
+  <si>
+    <t>Para sa karagdagang impormasyon, inihayag ni Jammeh na papalaguin niya ang mga lugar na bumoto para sa kanya pero huwag na daw umasa sa kahit ano ang mga hindi bobota para sa kanya.</t>
+  </si>
+  <si>
+    <t>bobota</t>
+  </si>
+  <si>
+    <t>boboto</t>
+  </si>
+  <si>
+    <t>Tatlong manunulat na Gambian ang akulong nang magsimula ang pagtangka sa coup.</t>
+  </si>
+  <si>
+    <t>akulong</t>
+  </si>
+  <si>
+    <t>nakulong</t>
+  </si>
+  <si>
+    <t>Inakusahan ng Reporters without Borders ang "President Yahya Jammeh's police state" ng paggamit ng pagpaty, panununog, labag sa batas na pagaaresto, at pagtatangka sa buhay ng mga manunulat.</t>
+  </si>
+  <si>
+    <t>pagaaresto</t>
+  </si>
+  <si>
+    <t>pag-aaresto</t>
+  </si>
+  <si>
+    <t>nungg</t>
+  </si>
+  <si>
+    <t>nung</t>
+  </si>
+  <si>
+    <t>Brian Jay Falsis</t>
+  </si>
+  <si>
+    <t>Bahagi na ng modernong Olympic nungg unang panahon ang paligsahan ng sining.</t>
+  </si>
+  <si>
+    <t>Si Pierre de Fredy at Baron de Coubertin ang mga may unang intension na isali ang sining sa Olympics.</t>
+  </si>
+  <si>
+    <t>intension</t>
+  </si>
+  <si>
+    <t>intensyon</t>
+  </si>
+  <si>
+    <t>Noong Mayo 1906, nagayos si Baron de Coubertin ng isang pulong para sa IOC at mga artist organisasyon.</t>
+  </si>
+  <si>
+    <t>nagayos</t>
+  </si>
+  <si>
+    <t>nag-ayos</t>
+  </si>
+  <si>
+    <t>Paliksahan anfg tema sa paglikha ng sining.</t>
+  </si>
+  <si>
+    <t>anfg</t>
+  </si>
+  <si>
+    <t>ang</t>
+  </si>
+  <si>
+    <t>Binalak ng mga Briton na isagawa ang paligsahan ngunit nakulang sila sa oras kaya ito'y hindi naituloy.</t>
+  </si>
+  <si>
+    <t>nakulang</t>
+  </si>
+  <si>
+    <t>nagkulang</t>
+  </si>
+  <si>
+    <t>Hindi pinaghinaan ng loob si Pierre De Coubertin, at isinulong niya na maisama ang paliligsahang ito sa susunod na summer Olympics sa taong 1912 sa Stockholm, Sweden.</t>
+  </si>
+  <si>
+    <t>pinaghinaan</t>
+  </si>
+  <si>
+    <t>pinanghinaan</t>
+  </si>
+  <si>
+    <t>Sa unang pagkakataon, ang sinerioso nila ang competisyon at 193 ang sumali.</t>
+  </si>
+  <si>
+    <t>sinerioso</t>
+  </si>
+  <si>
+    <t>sineryoso</t>
+  </si>
+  <si>
+    <t>competisyon</t>
+  </si>
+  <si>
+    <t>kumpetisyon</t>
+  </si>
+  <si>
+    <t>Pinayagan ang mga artists na ibenta ang mga sining nila pagkatapos ng exhebisyon. Medyo kontrobersyal ito dahil dapat hindi propesyonal ang ma sumasali.</t>
+  </si>
+  <si>
+    <t>artists</t>
+  </si>
+  <si>
+    <t>artista</t>
+  </si>
+  <si>
+    <t>Ngunit sa limitadong apela ng naturang exhibition, hindi parin matuturing ang sporting ay isang cultural end.</t>
+  </si>
+  <si>
+    <t>apila</t>
+  </si>
+  <si>
+    <t>apela</t>
+  </si>
+  <si>
+    <t>Tulad sa lahat ng thematic art, mga gamit na ito ay nasa labas dulo ng kanilang isip.</t>
+  </si>
+  <si>
+    <t>Tulad sa lahat</t>
+  </si>
+  <si>
+    <t>Tulad ng lahat</t>
+  </si>
+  <si>
+    <t>Binigyan parin ng medalya ung mga artist noong 1948 ngunit natangal ito sa 1936.</t>
+  </si>
+  <si>
+    <t>natangal</t>
+  </si>
+  <si>
+    <t>natanggal</t>
+  </si>
+  <si>
+    <t>ding</t>
+  </si>
+  <si>
+    <t>Mayroong din na hindi Kristiyanong relihiyon sa bansa, gaya ng Islam (0.95%), ang Bahai Faith (0.5%), at Hinduism (0.15%).</t>
+  </si>
+  <si>
+    <t>din na</t>
+  </si>
+  <si>
+    <t>Rain Reyes</t>
+  </si>
+  <si>
+    <t>Nanatili parin ang kulturang Mayan nang dumating ang Kastila sa Gitnang Amerika, ngunit lumipat sa Aztec Empire, bandang hilaga ang pangingibabaw ng politika sa lugar.</t>
+  </si>
+  <si>
+    <t>Ronnie Maye Saraza</t>
+  </si>
+  <si>
+    <t>pang-kultura</t>
+  </si>
+  <si>
+    <t>pangkultura</t>
+  </si>
+  <si>
+    <t>Bilang resulta ng pag-unlad ng agrikultura sa timog, maraming importanteng paunang pang-kultura ang ginawa rito.</t>
+  </si>
+  <si>
+    <t>Sa mga unang panahon ng dinastiyang kasaysayan ng Ehipto, inilibing sa mga estrukturang mukhang bangko ang mga may kayanna kilala rin bilang mastabas.</t>
+  </si>
+  <si>
+    <t>kayanna</t>
+  </si>
+  <si>
+    <t>kaya na</t>
+  </si>
+  <si>
+    <t>Shaira Ralleta</t>
+  </si>
+  <si>
+    <t>Noong Agosto ika-51 BC, nasira ng tuluyan ang relasyon ng mga makapangyarihan.</t>
+  </si>
+  <si>
+    <t>Anton De Joya</t>
+  </si>
+  <si>
+    <t>Si Strato ang pinaka matandang pinanggalingan, buhay siya ng panahong iyon, at maari ring nakapunta na siya sa Alexandria.</t>
+  </si>
+  <si>
+    <t>pinaka matandang</t>
+  </si>
+  <si>
+    <t>pinakamatandang</t>
+  </si>
+  <si>
+    <t>Isang tala na iyon nung panahon na iyon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nung </t>
+  </si>
+  <si>
+    <t>Nagbigay ng kontribusyon ang Victorian at ang mga pamahalaan ng commonwealth, halos lahat ng gastos para sa altar ay galing sa kontribusyon ng publiko at si Monash ang nagpasimuno sa pag ipon ng pondo.</t>
+  </si>
+  <si>
+    <t>pag ipon</t>
+  </si>
+  <si>
+    <t>pag-ipon</t>
+  </si>
+  <si>
+    <t>Zeke Philippe Zaragoza</t>
+  </si>
+  <si>
+    <t>Noong 1951 ang katawan ni Field Marshal, Thomas Blamey, ang kumander ng militar ng Australya sa panahon ng mundong digmaan, nilagay ito sa altar ng tatlong araw para pagtignan ng publiko kasunod ng estadong libing sa lugar.</t>
+  </si>
+  <si>
+    <t>para pagtignan ng</t>
+  </si>
+  <si>
+    <t>para matingnan ng</t>
+  </si>
+  <si>
+    <t>Isa siyang myembro ng prestihiyosong pamilyang Ewing, anak ni Thomas Ewing, pinakamatandang kapatid na lalaki ni Thomas Ewing, Jr. at Charles Ewing, at bayaw ni William T. Si Heneral Ewing ay isang mapaghangad, edukado at marunong na opisiyal na may mataas na pananagutan para sa mga tauhan na sumusunod sa kanya.</t>
+  </si>
+  <si>
+    <t>myembro</t>
+  </si>
+  <si>
+    <t>miyembro</t>
+  </si>
+  <si>
+    <t>Martin Wolfgang Schoeler</t>
+  </si>
+  <si>
+    <t>Nakapag aral siya sa militar akademya ng U.S. pero napilitan siya magbitiw sa bisperas ng kanyang pagtatapos ng malaman na bumagsak siya sa kanyang pag-iinhinyerong pagsusulit, isa itong kahihiyan sa kanyang pamilya.</t>
+  </si>
+  <si>
+    <t>Nakapag aral</t>
+  </si>
+  <si>
+    <t>Nakapag-aral</t>
+  </si>
+  <si>
+    <t>Mabilisan sila nakapagtayo ng kompanyang pangbatas na isa sa nagunguna sa Leavenworth, mapera at makapangyarihan na ahensiya.</t>
+  </si>
+  <si>
+    <t>sila</t>
+  </si>
+  <si>
+    <t>silang</t>
+  </si>
+  <si>
+    <t>Nag silbi siya sa ilalim ni Rosercrans at McClellan sa western Virginia.</t>
+  </si>
+  <si>
+    <t>Nag silbi</t>
+  </si>
+  <si>
+    <t>Nagsilbi</t>
+  </si>
+  <si>
+    <t>Lemmas</t>
+  </si>
+  <si>
+    <t>For Chef 1</t>
+  </si>
+  <si>
+    <t>Chicoy 2</t>
+  </si>
+  <si>
+    <t>Ninanais nating isipin ang sining ng diskirso tulad ng iba pang uri ng sining, at hindi upang magkaroon ng salungat na paghatol sa magkakatulad na bagay, o ipakita na hindi tayo tumatanggap ng kapangyarihan na, sa lahat ng makapangyarihan na kabilang sa katutubong ugali ng tao, nagmula ang ating mga biyaya.</t>
+  </si>
+  <si>
+    <t>Samakatuwid, kinakailangan natin isipin ang mga sining ng pakikipag-talakayan, katulad ng pasiisip natin sa iba pang mga singing, para hindi makabuo ng salungat na hatol mula sa mga magkakaparehong bagay, o ipakita sa ating sarili ang pagsuway sa kapangyarihan na pinagmumulan ng ating mga kilos at pinagmumulan rin ng kariimihan ng mga biyaya natin.</t>
+  </si>
+  <si>
+    <t>katulad ng pagiisip natin</t>
+  </si>
+  <si>
+    <t>katulad ng pag-iisip natin</t>
+  </si>
+  <si>
+    <t>Ngunit, sa kadahilanang nakaintal na sa atin ang kapangyarihang upang hikayatin at ipaintindi ng maayos sa isa't-isa ang anumang hinahangad natin, hindi lamang tayo kumawala sa isang masalumuot na pamumuhay kundi sama-sama tayong nagtayo ng mga siyudad, nagtatag ng mga batas at lumikha ng mga sining at kultura.</t>
+  </si>
+  <si>
+    <t>Kung kung masaktan nila ang aking damdamin, maaari naming pag-usapan ito.</t>
+  </si>
+  <si>
+    <t>Kung kung masaktan</t>
   </si>
 </sst>
 </file>
@@ -479,15 +1950,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -510,11 +1987,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -536,6 +2059,77 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,7 +2190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -631,7 +2225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -842,18 +2436,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:I47"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="70.5546875" customWidth="1"/>
-    <col min="4" max="4" width="36.5546875" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="1" max="3" width="70.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -886,7 +2480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,7 +2503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -932,7 +2526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -955,7 +2549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -978,7 +2572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1001,7 +2595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1024,7 +2618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1047,7 +2641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1070,7 +2664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -1093,7 +2687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1116,7 +2710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>50</v>
       </c>
@@ -1139,7 +2733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1160,7 +2754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -1183,7 +2777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -1206,7 +2800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1227,7 +2821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>61</v>
       </c>
@@ -1250,7 +2844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -1273,7 +2867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -1296,7 +2890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>70</v>
       </c>
@@ -1319,7 +2913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1340,7 +2934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>77</v>
       </c>
@@ -1363,7 +2957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1384,7 +2978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1405,7 +2999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -1428,7 +3022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -1451,7 +3045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>87</v>
       </c>
@@ -1474,7 +3068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
@@ -1497,7 +3091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
@@ -1520,7 +3114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
@@ -1543,7 +3137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>99</v>
       </c>
@@ -1566,7 +3160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>100</v>
       </c>
@@ -1589,7 +3183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -1612,7 +3206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>106</v>
       </c>
@@ -1635,7 +3229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>106</v>
       </c>
@@ -1658,7 +3252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1679,7 +3273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>113</v>
       </c>
@@ -1702,7 +3296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>116</v>
       </c>
@@ -1725,7 +3319,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>120</v>
       </c>
@@ -1748,7 +3342,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>123</v>
       </c>
@@ -1771,7 +3365,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>129</v>
       </c>
@@ -1799,7 +3393,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>130</v>
       </c>
@@ -1822,7 +3416,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>137</v>
       </c>
@@ -1845,7 +3439,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1866,7 +3460,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>138</v>
       </c>
@@ -1889,7 +3483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>141</v>
       </c>
@@ -1912,7 +3506,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>142</v>
       </c>
@@ -1943,28 +3537,4197 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.5546875" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="1" max="3" width="70.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" t="s">
+        <v>268</v>
+      </c>
+      <c r="E43" t="s">
+        <v>269</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E54" t="s">
+        <v>317</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" t="s">
+        <v>320</v>
+      </c>
+      <c r="E55" t="s">
+        <v>321</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" t="s">
+        <v>324</v>
+      </c>
+      <c r="E56" t="s">
+        <v>325</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86:G86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="70.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D20" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J43" s="24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D45" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J60" s="24" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J61" s="24" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="F62" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J62" s="24" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J63" s="24" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J64" s="24" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J65" s="24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="D66" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I66" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J66" s="24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J67" s="24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J68" s="24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J69" s="24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J70" s="24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J71" s="24" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J72" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J73" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J74" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J75" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J76" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J77" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="B78" s="24"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I78" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J78" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I79" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J79" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J80" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J81" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24" t="s">
+        <v>567</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I82" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J82" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I83" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J83" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J84" s="24" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H85" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I85" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J85" s="24" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="F86" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I86" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J86" s="24" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="24" t="s">
+        <v>581</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H87" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I87" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J87" s="30" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F88" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H88" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I88" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J88" s="24" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="F89" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H89" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I89" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J89" s="24" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H90" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I90" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J90" s="24" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J91" s="24" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J92" s="24" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A93" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I93" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J93" s="24" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J94" s="24" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J95" s="24" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="F96" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H96" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="I96" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="J96" s="24" t="s">
+        <v>602</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1983,43 +7746,91 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>621</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="5" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2028,7 +7839,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2037,7 +7848,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2046,7 +7857,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2055,7 +7866,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2064,7 +7875,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2073,7 +7884,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2082,7 +7893,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
@@ -2091,7 +7902,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2100,7 +7911,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2109,7 +7920,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2118,7 +7929,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2127,7 +7938,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2136,7 +7947,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2145,7 +7956,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2154,7 +7965,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2163,7 +7974,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2172,7 +7983,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2181,7 +7992,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2190,7 +8001,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2199,7 +8010,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2208,7 +8019,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2217,7 +8028,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2226,7 +8037,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2235,7 +8046,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2244,7 +8055,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2253,7 +8064,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2262,7 +8073,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2271,7 +8082,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2280,7 +8091,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2289,7 +8100,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2298,7 +8109,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2307,7 +8118,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2316,7 +8127,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2325,7 +8136,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2334,7 +8145,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -2342,13 +8153,8 @@
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2357,7 +8163,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -2366,7 +8172,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2375,7 +8181,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -2384,7 +8190,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -2393,7 +8199,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -2404,6 +8210,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Data Per Error Type.xlsx
+++ b/Test Data Per Error Type.xlsx
@@ -10,15 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="662">
   <si>
     <t>Insertion</t>
   </si>
@@ -1902,9 +1901,6 @@
     <t>Lemmas</t>
   </si>
   <si>
-    <t>For Chef 1</t>
-  </si>
-  <si>
     <t>Chicoy 2</t>
   </si>
   <si>
@@ -1927,13 +1923,136 @@
   </si>
   <si>
     <t>Kung kung masaktan</t>
+  </si>
+  <si>
+    <t>Mga balita tungkol sa laki ng Birgus latro at higit sa lahat, umabot ng 4kg ang bigat nito, humaba ng 400mm ang katawan, at 2m ang haba ng binti nito sa lahat ng lalaking tatos na masmalaki pa sa babaeng tatos.</t>
+  </si>
+  <si>
+    <t>masmalaki</t>
+  </si>
+  <si>
+    <t>mas malaki</t>
+  </si>
+  <si>
+    <t>Chef 1</t>
+  </si>
+  <si>
+    <t>Tulad ng mga uwang, malalaki at malalakas ang kasunod ng pares na binti nito na pwede silang umakyat ng patayo sa mga puno hanggang anim na metro pataas (palaging nasa puno ng niyog)</t>
+  </si>
+  <si>
+    <t>umakyat ng patayo</t>
+  </si>
+  <si>
+    <t>umakyat nang patayo</t>
+  </si>
+  <si>
+    <t>Ibanez, Mark Denzel</t>
+  </si>
+  <si>
+    <t>Gayunman, kakain sila ng mahigit kahit anung organic, kasama ang mga dahon, gapok na prutas, itlog ng pagong, patay na hayop, at kartutso ng ibang hayop, na napaniwalaang nagbibigay ng calcium</t>
+  </si>
+  <si>
+    <t>anung</t>
+  </si>
+  <si>
+    <t>anong</t>
+  </si>
+  <si>
+    <t>Pagkatapos, iikutin niya at gagamitin ang masmaliit na sipit sa kanyang kabilang binti para hilain palabas ang putting laman ng niyog.</t>
+  </si>
+  <si>
+    <t>masmaliit</t>
+  </si>
+  <si>
+    <t>mas maliit</t>
+  </si>
+  <si>
+    <t>Lalabas rin ang tatus ng maarawn kapag mahalumigmig ang panahon o umuulan, mula pa pwede na ang kondisyon nilang huminga ng masmadali</t>
+  </si>
+  <si>
+    <t>masmadali</t>
+  </si>
+  <si>
+    <t>mas madali</t>
+  </si>
+  <si>
+    <t>Pinakamalaki at pinakamabuting na pananatili ng populasyon sa buong mundo ang Christmas Island sa karagatan ng India.</t>
+  </si>
+  <si>
+    <t>na pananatili</t>
+  </si>
+  <si>
+    <t>napananatili</t>
+  </si>
+  <si>
+    <t>Ang pag aaral sa sekswalidad ng mga hayop (lalo na ang sekswalidad sa mga primado) ay umuunlad na nang mabilis.</t>
+  </si>
+  <si>
+    <t>pag aaral</t>
+  </si>
+  <si>
+    <t>Ivan Marlowe L. Demabildo</t>
+  </si>
+  <si>
+    <t>Kahit binatikos siya, ang ideya niya ang nagpapakita ng kahirapan at imperpeksyon sa kasalukuyang tugon sa mga pagkaka-iba nito.</t>
+  </si>
+  <si>
+    <t>pagkaka-iba</t>
+  </si>
+  <si>
+    <t>pagkakaiba</t>
+  </si>
+  <si>
+    <t>Negosyong Interes-kita(pag-kuha ng deposito mula sa pagtitingi ng mga mamimili para sa pautang para sa korporeyts) ang pangunahing pagkakakilala dito bagaman unti-unti itong nagiging lugar na hindi-interes-kita tulad ng personal na pautang, pamamahala sa kayamanan at iba pang serbisyong pinansyal sa kasalukuyang mga taon.</t>
+  </si>
+  <si>
+    <t>pag-kuha</t>
+  </si>
+  <si>
+    <t>pagkuha</t>
+  </si>
+  <si>
+    <t>Christopher Edmund V. Wong</t>
+  </si>
+  <si>
+    <t>Natuklasan ito noong 1968 at Ilinarawan noong 1972. Isa ito sa pinaka bagong uri ng New World Warbler (Parulidae Family) na nailarawan.</t>
+  </si>
+  <si>
+    <t>pinaka bagong</t>
+  </si>
+  <si>
+    <t>pinakabagong</t>
+  </si>
+  <si>
+    <t>Maria Illurosa R. Lim</t>
+  </si>
+  <si>
+    <t>Pinagmasdan niya ang pagka-ayon ng limang dahon ng bulaklak at kung paano lumikha ng labis na damdamin ang pagkakatulad nito.</t>
+  </si>
+  <si>
+    <t>pagka-ayon</t>
+  </si>
+  <si>
+    <t>pagkaayon</t>
+  </si>
+  <si>
+    <t>Tsoi, Jeanine Beatrice L.</t>
+  </si>
+  <si>
+    <t>Kapag ipinapakita naman ang watawat sa labas ng isang gusali, ginagamit na puntong pangtukoy ng kaliwan at kanang bahagi ng watawat ang kaliwa at kanang tagiliran ng isang tao, kung saan nakaharap siya sa harap ng pasukan ng gusali.</t>
+  </si>
+  <si>
+    <t>pangtukoy</t>
+  </si>
+  <si>
+    <t>pantukoy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1944,6 +2063,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2037,7 +2163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2129,6 +2255,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7706,10 +7838,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7721,9 +7853,10 @@
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="42" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -7746,9 +7879,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>169</v>
@@ -7764,18 +7897,18 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>617</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>618</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>34</v>
@@ -7785,12 +7918,12 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>172</v>
@@ -7806,15 +7939,15 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>620</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>621</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>182</v>
@@ -7827,118 +7960,298 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>621</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>622</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>625</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>626</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>629</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>631</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>632</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>635</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>640</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>641</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>642</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>644</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>645</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>646</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>647</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>648</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>649</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>655</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>657</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>659</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>660</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>661</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7947,7 +8260,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7956,7 +8269,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -7965,7 +8278,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -7974,7 +8287,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -7983,7 +8296,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -7992,7 +8305,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -8001,7 +8314,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -8010,7 +8323,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -8019,7 +8332,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -8028,7 +8341,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -8037,7 +8350,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -8046,7 +8359,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -8055,7 +8368,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -8064,7 +8377,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -8211,29 +8524,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>